--- a/biology/Botanique/Serres_royales_de_Laeken/Serres_royales_de_Laeken.xlsx
+++ b/biology/Botanique/Serres_royales_de_Laeken/Serres_royales_de_Laeken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les serres royales de Laeken sont une construction architecturale composée de métal et de verre, réalisée par l'architecte Alphonse Balat dans le parc attenant au château royal de Laeken (Bruxelles) à l'initiative de Léopold II.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles comptent parmi les principaux monuments du XIXe siècle en Belgique. Elles ont été entièrement édifiées en métal et en verre, ce qui représentait pour l’époque une innovation spectaculaire tout comme le Crystal Palace (édifié à Londres par l'architecte Paxton en 1851).
 En 1873, l’architecte Alphonse Balat conçoit pour le roi Léopold II, grand amateur de plantes et de fleurs (particulièrement les camélias dont il rapportait régulièrement de nouvelles variétés lors de ses voyages), un complexe de serres en relation avec le château de Laeken.
